--- a/Copy of LeapfrogInput-MK (3) _ TM edit.xlsx
+++ b/Copy of LeapfrogInput-MK (3) _ TM edit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ItoN\MidnightSunTrinityJV\Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoloney\Documents\work\Lowry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B36EA61-A9C7-42CF-955A-354E2AF1DDCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F23C15E-06F0-4A4F-89AD-3E00AF67B18A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Silty Clay</t>
   </si>
   <si>
-    <t>BG-SB1</t>
-  </si>
-  <si>
     <t>Clay</t>
   </si>
   <si>
@@ -121,18 +118,12 @@
     <t xml:space="preserve">Silt </t>
   </si>
   <si>
-    <t>BG-SB2</t>
-  </si>
-  <si>
     <t>Clayey SLT</t>
   </si>
   <si>
     <t>Slightly Silty</t>
   </si>
   <si>
-    <t>BG-SB3</t>
-  </si>
-  <si>
     <t>Clayey Sand</t>
   </si>
   <si>
@@ -431,6 +422,15 @@
   </si>
   <si>
     <t>Silty clay</t>
+  </si>
+  <si>
+    <t>MW-1</t>
+  </si>
+  <si>
+    <t>MW-2</t>
+  </si>
+  <si>
+    <t>MW-3</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1551,18 +1551,18 @@
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G62" si="0">D2</f>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1">
         <v>4.4000000000000004</v>
@@ -1589,7 +1589,7 @@
         <v>5.7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1">
         <v>5.7</v>
@@ -1607,7 +1607,7 @@
         <v>6.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1">
         <v>6.5</v>
@@ -1625,7 +1625,7 @@
         <v>19.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1">
         <v>19.5</v>
@@ -1643,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1">
         <v>29</v>
@@ -1661,7 +1661,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -1679,15 +1679,15 @@
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1">
         <v>35</v>
@@ -1696,7 +1696,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1">
         <v>49</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1">
         <v>55</v>
@@ -1732,7 +1732,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
@@ -1750,7 +1750,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1">
         <v>0.5</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -1822,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -1843,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B18" s="1">
         <v>29.5</v>
@@ -1861,10 +1861,10 @@
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -1882,7 +1882,7 @@
         <v>34.9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1">
         <v>34.9</v>
@@ -1900,7 +1900,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1">
         <v>44</v>
@@ -1918,7 +1918,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>3.5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1">
         <v>3.5</v>
@@ -1954,7 +1954,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1">
         <v>8.8000000000000007</v>
@@ -1972,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1">
         <v>34</v>
@@ -1990,7 +1990,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B26" s="1">
         <v>40</v>
@@ -2008,10 +2008,10 @@
         <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1">
         <v>44</v>
@@ -2029,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -2068,10 +2068,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>13.6</v>
@@ -2089,7 +2089,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>18</v>
@@ -2110,10 +2110,10 @@
         <v>24</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
         <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>30.7</v>
@@ -2131,7 +2131,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
@@ -2149,7 +2149,7 @@
         <v>31.3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>31.3</v>
@@ -2167,7 +2167,7 @@
         <v>44.6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>44.6</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>46.2</v>
@@ -2203,7 +2203,7 @@
         <v>57.4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1">
         <v>57.4</v>
@@ -2221,7 +2221,7 @@
         <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <v>60</v>
@@ -2239,7 +2239,7 @@
         <v>63.5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>5.3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>5.3</v>
@@ -2275,7 +2275,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>21</v>
@@ -2293,7 +2293,7 @@
         <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
         <v>26</v>
@@ -2311,7 +2311,7 @@
         <v>27.5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>27.5</v>
@@ -2329,7 +2329,7 @@
         <v>32.5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1">
         <v>32.5</v>
@@ -2347,7 +2347,7 @@
         <v>40.1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1">
         <v>40.1</v>
@@ -2365,7 +2365,7 @@
         <v>46.2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1">
         <v>41.8</v>
@@ -2383,7 +2383,7 @@
         <v>46.2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1">
         <v>46.2</v>
@@ -2401,7 +2401,7 @@
         <v>48.2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1">
         <v>48.2</v>
@@ -2419,7 +2419,7 @@
         <v>49.2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1">
         <v>49.2</v>
@@ -2437,10 +2437,10 @@
         <v>50</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1">
         <v>50</v>
@@ -2458,7 +2458,7 @@
         <v>62.6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1">
         <v>62.6</v>
@@ -2476,7 +2476,7 @@
         <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1">
         <v>83</v>
@@ -2494,7 +2494,7 @@
         <v>84.5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>5.5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1">
         <v>5.5</v>
@@ -2530,7 +2530,7 @@
         <v>9.1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
         <v>9.1</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B56" s="1">
         <v>13.4</v>
@@ -2566,7 +2566,7 @@
         <v>15.1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1">
         <v>15.1</v>
@@ -2584,7 +2584,7 @@
         <v>26.1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B58" s="1">
         <v>26.1</v>
@@ -2602,7 +2602,7 @@
         <v>27.5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B59" s="1">
         <v>27.5</v>
@@ -2620,7 +2620,7 @@
         <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1">
         <v>30</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1">
         <v>42.8</v>
@@ -2656,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B62" s="1">
         <v>51</v>
@@ -2674,7 +2674,7 @@
         <v>59</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1">
         <v>59</v>
@@ -2695,13 +2695,13 @@
         <v>24</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" ref="G63:G126" si="1">D63</f>
+        <f t="shared" ref="G63:G124" si="1">D63</f>
         <v>Silty Clay</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -2728,7 +2728,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1">
         <v>8.6999999999999993</v>
@@ -2746,7 +2746,7 @@
         <v>11.8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1">
         <v>11.8</v>
@@ -2764,15 +2764,15 @@
         <v>11.9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
         <v>11.9</v>
@@ -2781,7 +2781,7 @@
         <v>22.5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1">
         <v>22.5</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
         <v>34.700000000000003</v>
@@ -2817,7 +2817,7 @@
         <v>46.7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B71" s="1">
         <v>46.7</v>
@@ -2835,7 +2835,7 @@
         <v>66</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B72" s="1">
         <v>66</v>
@@ -2853,7 +2853,7 @@
         <v>69</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>12.4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
         <v>24</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1">
         <v>12.4</v>
@@ -2888,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B75" s="1">
         <v>16</v>
@@ -2906,7 +2906,7 @@
         <v>24.7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
         <v>24.7</v>
@@ -2924,7 +2924,7 @@
         <v>28</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B79" s="1">
         <v>7</v>
@@ -2978,7 +2978,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B80" s="1">
         <v>20</v>
@@ -2996,7 +2996,7 @@
         <v>25.4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B81" s="1">
         <v>25.4</v>
@@ -3014,15 +3014,15 @@
         <v>30</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B82" s="1">
         <v>30</v>
@@ -3031,7 +3031,7 @@
         <v>54.4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1">
         <v>54.4</v>
@@ -3049,15 +3049,15 @@
         <v>60.3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B85" s="1">
         <v>7.2</v>
@@ -3084,7 +3084,7 @@
         <v>44.5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B86" s="1">
         <v>44.5</v>
@@ -3102,15 +3102,15 @@
         <v>59.8</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" t="s">
         <v>51</v>
-      </c>
-      <c r="G86" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B87" s="1">
         <v>59.8</v>
@@ -3119,7 +3119,7 @@
         <v>65.5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B88" s="1">
         <v>65.5</v>
@@ -3137,7 +3137,7 @@
         <v>66.5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>24</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>1.9</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B91" s="1">
         <v>1.9</v>
@@ -3190,7 +3190,7 @@
         <v>10.5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B92" s="1">
         <v>10.5</v>
@@ -3208,7 +3208,7 @@
         <v>12.7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B93" s="1">
         <v>12.7</v>
@@ -3226,7 +3226,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B94" s="1">
         <v>25</v>
@@ -3244,7 +3244,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B95" s="1">
         <v>33.799999999999997</v>
@@ -3262,7 +3262,7 @@
         <v>48.8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1">
         <v>48.8</v>
@@ -3280,7 +3280,7 @@
         <v>57.6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1">
         <v>57.6</v>
@@ -3298,7 +3298,7 @@
         <v>75.5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B98" s="1">
         <v>75.5</v>
@@ -3316,7 +3316,7 @@
         <v>77.8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G98" t="s">
         <v>24</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>8.5</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B100" s="1">
         <v>8.5</v>
@@ -3354,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B101" s="1">
         <v>23</v>
@@ -3372,7 +3372,7 @@
         <v>42.5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B102" s="1">
         <v>42.5</v>
@@ -3390,15 +3390,15 @@
         <v>43</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G102" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B103" s="1">
         <v>43</v>
@@ -3407,15 +3407,15 @@
         <v>45.5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B104" s="1">
         <v>45.5</v>
@@ -3424,7 +3424,7 @@
         <v>54</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B105" s="1">
         <v>54</v>
@@ -3442,7 +3442,7 @@
         <v>69</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B106" s="1">
         <v>69</v>
@@ -3460,7 +3460,7 @@
         <v>76</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B107" s="1">
         <v>76</v>
@@ -3478,7 +3478,7 @@
         <v>78.2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B108" s="1">
         <v>78.2</v>
@@ -3496,7 +3496,7 @@
         <v>83</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B109" s="1">
         <v>83</v>
@@ -3514,7 +3514,7 @@
         <v>100</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
@@ -3550,15 +3550,15 @@
         <v>11.5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B112" s="1">
         <v>11.5</v>
@@ -3567,7 +3567,7 @@
         <v>37</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B113" s="1">
         <v>37</v>
@@ -3585,7 +3585,7 @@
         <v>42.7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G113" t="s">
         <v>24</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1">
         <v>42.7</v>
@@ -3602,7 +3602,7 @@
         <v>92.9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B115" s="1">
         <v>92.9</v>
@@ -3620,15 +3620,15 @@
         <v>98</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B116" s="1">
         <v>98</v>
@@ -3637,7 +3637,7 @@
         <v>103</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B117" s="1">
         <v>103</v>
@@ -3655,15 +3655,15 @@
         <v>106.4</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G117" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1">
         <v>106.4</v>
@@ -3672,7 +3672,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -3690,18 +3690,18 @@
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B120" s="1">
         <v>5</v>
@@ -3710,15 +3710,15 @@
         <v>14</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B121" s="1">
         <v>14</v>
@@ -3727,7 +3727,7 @@
         <v>27.4</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B122" s="1">
         <v>27.4</v>
@@ -3745,7 +3745,7 @@
         <v>34</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G122" t="s">
         <v>24</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B123" s="1">
         <v>34</v>
@@ -3762,18 +3762,18 @@
         <v>45</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F123" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B124" s="1">
         <v>45</v>
@@ -3782,7 +3782,7 @@
         <v>55</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F125" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G125" t="s">
         <v>24</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B126" s="1">
         <v>10</v>
@@ -3820,15 +3820,15 @@
         <v>35</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G126" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B127" s="1">
         <v>35</v>
@@ -3837,15 +3837,15 @@
         <v>55</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G127" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B128" s="1">
         <v>55</v>
@@ -3854,16 +3854,16 @@
         <v>65</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" ref="G127:G190" si="2">D128</f>
+        <f t="shared" ref="G128:G190" si="2">D128</f>
         <v>Clayey silt</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -3890,7 +3890,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B131" s="1">
         <v>8</v>
@@ -3908,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B132" s="1">
         <v>12</v>
@@ -3926,7 +3926,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B133" s="1">
         <v>18</v>
@@ -3944,7 +3944,7 @@
         <v>30</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B134" s="1">
         <v>30</v>
@@ -3962,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B135" s="1">
         <v>34</v>
@@ -3980,7 +3980,7 @@
         <v>44</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B137" s="1">
         <v>5</v>
@@ -4016,7 +4016,7 @@
         <v>21</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B138" s="1">
         <v>21</v>
@@ -4034,7 +4034,7 @@
         <v>30</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B139" s="1">
         <v>30</v>
@@ -4052,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B140" s="1">
         <v>40</v>
@@ -4070,7 +4070,7 @@
         <v>44</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B142" s="1">
         <v>6</v>
@@ -4106,7 +4106,7 @@
         <v>22</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B143" s="1">
         <v>22</v>
@@ -4124,7 +4124,7 @@
         <v>28</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B144" s="1">
         <v>28</v>
@@ -4142,7 +4142,7 @@
         <v>32</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B145" s="1">
         <v>32</v>
@@ -4160,7 +4160,7 @@
         <v>38</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B146" s="1">
         <v>38</v>
@@ -4178,7 +4178,7 @@
         <v>42</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B147" s="1">
         <v>42</v>
@@ -4196,7 +4196,7 @@
         <v>50</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B149" s="1">
         <v>10</v>
@@ -4232,7 +4232,7 @@
         <v>18</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B150" s="1">
         <v>18</v>
@@ -4250,7 +4250,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B151" s="1">
         <v>24</v>
@@ -4268,7 +4268,7 @@
         <v>30</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B152" s="1">
         <v>30</v>
@@ -4286,7 +4286,7 @@
         <v>46</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B153" s="1">
         <v>46</v>
@@ -4304,7 +4304,7 @@
         <v>50</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B155" s="1">
         <v>6</v>
@@ -4340,7 +4340,7 @@
         <v>16</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B156" s="1">
         <v>16</v>
@@ -4358,7 +4358,7 @@
         <v>28</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B157" s="1">
         <v>28</v>
@@ -4376,7 +4376,7 @@
         <v>40</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B158" s="1">
         <v>40</v>
@@ -4394,7 +4394,7 @@
         <v>44</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B159" s="1">
         <v>44</v>
@@ -4412,7 +4412,7 @@
         <v>48</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B160" s="1">
         <v>48</v>
@@ -4430,7 +4430,7 @@
         <v>52</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B162" s="1">
         <v>8</v>
@@ -4466,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B163" s="1">
         <v>18</v>
@@ -4484,7 +4484,7 @@
         <v>32</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B164" s="1">
         <v>32</v>
@@ -4502,7 +4502,7 @@
         <v>40</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B165" s="1">
         <v>40</v>
@@ -4520,7 +4520,7 @@
         <v>42</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B166" s="1">
         <v>42</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B167" s="1">
         <v>44</v>
@@ -4556,7 +4556,7 @@
         <v>46</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B169" s="1">
         <v>3</v>
@@ -4592,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B170" s="1">
         <v>10</v>
@@ -4610,7 +4610,7 @@
         <v>20</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B171" s="1">
         <v>20</v>
@@ -4628,7 +4628,7 @@
         <v>31</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B172" s="1">
         <v>31</v>
@@ -4646,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -4682,7 +4682,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B175" s="1">
         <v>10</v>
@@ -4700,7 +4700,7 @@
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B176" s="1">
         <v>20</v>
@@ -4718,7 +4718,7 @@
         <v>31</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B177" s="1">
         <v>31</v>
@@ -4736,7 +4736,7 @@
         <v>40</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B179" s="1">
         <v>3</v>
@@ -4772,7 +4772,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B180" s="1">
         <v>10</v>
@@ -4790,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B181" s="1">
         <v>18</v>
@@ -4808,7 +4808,7 @@
         <v>31</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B182" s="1">
         <v>31</v>
@@ -4826,7 +4826,7 @@
         <v>44</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B184" s="1">
         <v>3</v>
@@ -4862,7 +4862,7 @@
         <v>7</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B185" s="1">
         <v>7</v>
@@ -4880,7 +4880,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B186" s="1">
         <v>8</v>
@@ -4898,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B187" s="1">
         <v>10</v>
@@ -4916,7 +4916,7 @@
         <v>16</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B188" s="1">
         <v>16</v>
@@ -4934,7 +4934,7 @@
         <v>20</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B189" s="1">
         <v>20</v>
@@ -4952,7 +4952,7 @@
         <v>24</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B190" s="1">
         <v>24</v>
@@ -4970,7 +4970,7 @@
         <v>32</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B191" s="1">
         <v>32</v>
@@ -4988,7 +4988,7 @@
         <v>44</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" ref="G191:G254" si="3">D191</f>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="3"/>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B193" s="1">
         <v>5</v>
@@ -5024,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="3"/>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B194" s="1">
         <v>10</v>
@@ -5042,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="3"/>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B195" s="1">
         <v>16</v>
@@ -5060,7 +5060,7 @@
         <v>24</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B196" s="1">
         <v>24</v>
@@ -5078,7 +5078,7 @@
         <v>32</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B197" s="1">
         <v>32</v>
@@ -5096,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B198" s="1">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B199" s="1">
         <v>6</v>
@@ -5132,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="3"/>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B200" s="1">
         <v>12</v>
@@ -5150,7 +5150,7 @@
         <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B201" s="1">
         <v>24</v>
@@ -5168,7 +5168,7 @@
         <v>31</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="3"/>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B202" s="1">
         <v>31</v>
@@ -5186,7 +5186,7 @@
         <v>42</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="3"/>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>7</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="3"/>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B204" s="1">
         <v>7</v>
@@ -5222,7 +5222,7 @@
         <v>14</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="3"/>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B205" s="1">
         <v>14</v>
@@ -5240,7 +5240,7 @@
         <v>18</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="3"/>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B206" s="1">
         <v>18</v>
@@ -5258,7 +5258,7 @@
         <v>28</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="3"/>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B207" s="1">
         <v>28</v>
@@ -5276,7 +5276,7 @@
         <v>42</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="3"/>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B208" s="1">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="3"/>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B209" s="1">
         <v>6</v>
@@ -5312,7 +5312,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="3"/>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B210" s="1">
         <v>11</v>
@@ -5330,7 +5330,7 @@
         <v>18</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="3"/>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B211" s="1">
         <v>18</v>
@@ -5348,7 +5348,7 @@
         <v>23</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="3"/>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B212" s="1">
         <v>23</v>
@@ -5366,7 +5366,7 @@
         <v>28</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="3"/>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B213" s="1">
         <v>28</v>
@@ -5384,7 +5384,7 @@
         <v>32</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="3"/>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B214" s="1">
         <v>32</v>
@@ -5402,7 +5402,7 @@
         <v>40</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="3"/>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B215" s="1">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="3"/>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B216" s="1">
         <v>4</v>
@@ -5438,7 +5438,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="3"/>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B217" s="1">
         <v>9</v>
@@ -5456,7 +5456,7 @@
         <v>19</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="3"/>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B218" s="1">
         <v>19</v>
@@ -5474,7 +5474,7 @@
         <v>24</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="3"/>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B219" s="1">
         <v>24</v>
@@ -5492,7 +5492,7 @@
         <v>28</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="3"/>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B220" s="1">
         <v>28</v>
@@ -5510,7 +5510,7 @@
         <v>36</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="3"/>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B221" s="1">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="3"/>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B222" s="1">
         <v>8</v>
@@ -5546,7 +5546,7 @@
         <v>16</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="3"/>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B223" s="1">
         <v>16</v>
@@ -5564,7 +5564,7 @@
         <v>22</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="3"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B224" s="1">
         <v>22</v>
@@ -5582,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="3"/>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B225" s="1">
         <v>25</v>
@@ -5600,7 +5600,7 @@
         <v>40</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="3"/>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B226" s="1">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="3"/>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B227" s="1">
         <v>6</v>
@@ -5636,7 +5636,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="3"/>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B228" s="1">
         <v>14</v>
@@ -5654,7 +5654,7 @@
         <v>20</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="3"/>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B229" s="1">
         <v>20</v>
@@ -5672,7 +5672,7 @@
         <v>30</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="3"/>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B230" s="1">
         <v>30</v>
@@ -5690,7 +5690,7 @@
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="3"/>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B231" s="1">
         <v>34</v>
@@ -5708,7 +5708,7 @@
         <v>40</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="3"/>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="3"/>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B233" s="1">
         <v>8</v>
@@ -5744,7 +5744,7 @@
         <v>10</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="3"/>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B234" s="1">
         <v>10</v>
@@ -5762,7 +5762,7 @@
         <v>14</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="3"/>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B235" s="1">
         <v>14</v>
@@ -5780,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="3"/>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B236" s="1">
         <v>18</v>
@@ -5798,7 +5798,7 @@
         <v>22</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="3"/>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B237" s="1">
         <v>22</v>
@@ -5816,7 +5816,7 @@
         <v>32</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="3"/>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B238" s="1">
         <v>32</v>
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B239" s="1">
         <v>40</v>
@@ -5852,7 +5852,7 @@
         <v>44</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="3"/>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B240" s="1">
         <v>44</v>
@@ -5870,7 +5870,7 @@
         <v>52</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="3"/>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B241" s="1">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="3"/>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B242" s="1">
         <v>8</v>
@@ -5906,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="3"/>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B243" s="1">
         <v>12</v>
@@ -5924,7 +5924,7 @@
         <v>22</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="3"/>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B244" s="1">
         <v>22</v>
@@ -5942,7 +5942,7 @@
         <v>26</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="3"/>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B245" s="1">
         <v>26</v>
@@ -5960,7 +5960,7 @@
         <v>32</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="3"/>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B246" s="1">
         <v>32</v>
@@ -5978,7 +5978,7 @@
         <v>38</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="3"/>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B247" s="1">
         <v>38</v>
@@ -5996,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="3"/>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B248" s="1">
         <v>44</v>
@@ -6014,7 +6014,7 @@
         <v>50</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="3"/>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B249" s="1">
         <v>0</v>
@@ -6032,7 +6032,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="3"/>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B250" s="1">
         <v>6</v>
@@ -6050,7 +6050,7 @@
         <v>10</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="3"/>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B251" s="1">
         <v>10</v>
@@ -6068,7 +6068,7 @@
         <v>20</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="3"/>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B252" s="1">
         <v>22</v>
@@ -6086,7 +6086,7 @@
         <v>23</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="3"/>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B253" s="1">
         <v>23</v>
@@ -6104,7 +6104,7 @@
         <v>28</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="3"/>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B254" s="1">
         <v>28</v>
@@ -6122,7 +6122,7 @@
         <v>32</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="3"/>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B255" s="1">
         <v>32</v>
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" ref="G255:G318" si="4">D255</f>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B256" s="1">
         <v>36</v>
@@ -6158,7 +6158,7 @@
         <v>42</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="4"/>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B257" s="1">
         <v>42</v>
@@ -6176,7 +6176,7 @@
         <v>50</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="4"/>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B258" s="1">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>4</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="4"/>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B259" s="1">
         <v>4</v>
@@ -6212,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G259" t="str">
         <f t="shared" si="4"/>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B260" s="1">
         <v>12</v>
@@ -6230,7 +6230,7 @@
         <v>20</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" si="4"/>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B261" s="1">
         <v>20</v>
@@ -6248,7 +6248,7 @@
         <v>28</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="4"/>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B262" s="1">
         <v>28</v>
@@ -6266,7 +6266,7 @@
         <v>38</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="4"/>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B263" s="1">
         <v>38</v>
@@ -6284,7 +6284,7 @@
         <v>46</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="4"/>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B264" s="1">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>4</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="4"/>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B265" s="1">
         <v>4</v>
@@ -6320,7 +6320,7 @@
         <v>12</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="4"/>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B266" s="1">
         <v>12</v>
@@ -6338,7 +6338,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="4"/>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B267" s="1">
         <v>14</v>
@@ -6356,7 +6356,7 @@
         <v>18</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="4"/>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B268" s="1">
         <v>18</v>
@@ -6374,7 +6374,7 @@
         <v>22</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="4"/>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B269" s="1">
         <v>22</v>
@@ -6392,7 +6392,7 @@
         <v>28</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="4"/>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B270" s="1">
         <v>28</v>
@@ -6410,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="4"/>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B271" s="1">
         <v>35</v>
@@ -6428,7 +6428,7 @@
         <v>48</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G271" t="str">
         <f t="shared" si="4"/>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B272" s="1">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="4"/>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B273" s="1">
         <v>6</v>
@@ -6464,7 +6464,7 @@
         <v>12</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G273" t="str">
         <f t="shared" si="4"/>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B274" s="1">
         <v>12</v>
@@ -6482,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G274" t="str">
         <f t="shared" si="4"/>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B275" s="1">
         <v>20</v>
@@ -6500,7 +6500,7 @@
         <v>30</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G275" t="str">
         <f t="shared" si="4"/>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B276" s="1">
         <v>30</v>
@@ -6518,7 +6518,7 @@
         <v>34</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G276" t="str">
         <f t="shared" si="4"/>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B277" s="1">
         <v>34</v>
@@ -6536,7 +6536,7 @@
         <v>50</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G277" t="str">
         <f t="shared" si="4"/>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B278" s="1">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>6</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G278" t="str">
         <f t="shared" si="4"/>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B279" s="1">
         <v>6</v>
@@ -6572,7 +6572,7 @@
         <v>12</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G279" t="str">
         <f t="shared" si="4"/>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B280" s="1">
         <v>12</v>
@@ -6590,7 +6590,7 @@
         <v>22</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G280" t="str">
         <f t="shared" si="4"/>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B281" s="1">
         <v>22</v>
@@ -6608,7 +6608,7 @@
         <v>30</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G281" t="str">
         <f t="shared" si="4"/>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B282" s="1">
         <v>30</v>
@@ -6626,7 +6626,7 @@
         <v>34</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G282" t="str">
         <f t="shared" si="4"/>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B283" s="1">
         <v>34</v>
@@ -6644,7 +6644,7 @@
         <v>42</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="4"/>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B284" s="1">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>6</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G284" t="str">
         <f t="shared" si="4"/>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B285" s="1">
         <v>6</v>
@@ -6680,7 +6680,7 @@
         <v>10</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G285" t="str">
         <f t="shared" si="4"/>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B286" s="1">
         <v>10</v>
@@ -6698,7 +6698,7 @@
         <v>16</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="4"/>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B287" s="1">
         <v>16</v>
@@ -6716,7 +6716,7 @@
         <v>22</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G287" t="str">
         <f t="shared" si="4"/>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B288" s="1">
         <v>22</v>
@@ -6734,7 +6734,7 @@
         <v>30</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G288" t="str">
         <f t="shared" si="4"/>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B289" s="1">
         <v>30</v>
@@ -6752,7 +6752,7 @@
         <v>38</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G289" t="str">
         <f t="shared" si="4"/>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B290" s="1">
         <v>38</v>
@@ -6770,7 +6770,7 @@
         <v>48</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G290" t="str">
         <f t="shared" si="4"/>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B291" s="1">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>6</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G291" t="str">
         <f t="shared" si="4"/>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B292" s="1">
         <v>6</v>
@@ -6806,7 +6806,7 @@
         <v>10</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="4"/>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B293" s="1">
         <v>10</v>
@@ -6824,7 +6824,7 @@
         <v>14</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="4"/>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B294" s="1">
         <v>14</v>
@@ -6842,7 +6842,7 @@
         <v>30</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G294" t="str">
         <f t="shared" si="4"/>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B295" s="1">
         <v>30</v>
@@ -6860,7 +6860,7 @@
         <v>34</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G295" t="str">
         <f t="shared" si="4"/>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B296" s="1">
         <v>34</v>
@@ -6878,7 +6878,7 @@
         <v>38</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="4"/>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B297" s="1">
         <v>38</v>
@@ -6896,7 +6896,7 @@
         <v>42</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="4"/>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B298" s="1">
         <v>42</v>
@@ -6914,7 +6914,7 @@
         <v>46</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="4"/>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B299" s="1">
         <v>46</v>
@@ -6932,7 +6932,7 @@
         <v>52</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="4"/>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B300" s="1">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>4</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="4"/>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B301" s="1">
         <v>4</v>
@@ -6968,7 +6968,7 @@
         <v>14</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="4"/>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B302" s="1">
         <v>14</v>
@@ -6986,7 +6986,7 @@
         <v>20</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="4"/>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B303" s="1">
         <v>20</v>
@@ -7004,7 +7004,7 @@
         <v>24</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G303" t="str">
         <f t="shared" si="4"/>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B304" s="1">
         <v>24</v>
@@ -7022,7 +7022,7 @@
         <v>42</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G304" t="str">
         <f t="shared" si="4"/>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B305" s="1">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>6</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G305" t="str">
         <f t="shared" si="4"/>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B306" s="1">
         <v>6</v>
@@ -7058,7 +7058,7 @@
         <v>13</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G306" t="str">
         <f t="shared" si="4"/>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B307" s="1">
         <v>13</v>
@@ -7076,7 +7076,7 @@
         <v>17</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G307" t="str">
         <f t="shared" si="4"/>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B308" s="1">
         <v>17</v>
@@ -7094,7 +7094,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G308" t="str">
         <f t="shared" si="4"/>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B309" s="1">
         <v>28</v>
@@ -7112,7 +7112,7 @@
         <v>32</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G309" t="str">
         <f t="shared" si="4"/>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B310" s="1">
         <v>32</v>
@@ -7130,7 +7130,7 @@
         <v>42</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G310" t="str">
         <f t="shared" si="4"/>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B311" s="1">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>7</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G311" t="str">
         <f t="shared" si="4"/>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B312" s="1">
         <v>7</v>
@@ -7166,7 +7166,7 @@
         <v>14</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G312" t="str">
         <f t="shared" si="4"/>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B313" s="1">
         <v>14</v>
@@ -7184,7 +7184,7 @@
         <v>17</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G313" t="str">
         <f t="shared" si="4"/>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B314" s="1">
         <v>17</v>
@@ -7202,7 +7202,7 @@
         <v>28</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G314" t="str">
         <f t="shared" si="4"/>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B315" s="1">
         <v>28</v>
@@ -7220,7 +7220,7 @@
         <v>32</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G315" t="str">
         <f t="shared" si="4"/>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B316" s="1">
         <v>32</v>
@@ -7238,7 +7238,7 @@
         <v>42</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G316" t="str">
         <f t="shared" si="4"/>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B317" s="1">
         <v>0</v>
@@ -7256,7 +7256,7 @@
         <v>5</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G317" t="str">
         <f t="shared" si="4"/>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B318" s="1">
         <v>5</v>
@@ -7274,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G318" t="str">
         <f t="shared" si="4"/>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B319" s="1">
         <v>10</v>
@@ -7292,7 +7292,7 @@
         <v>17</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G319" t="str">
         <f t="shared" ref="G319:G382" si="5">D319</f>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B320" s="1">
         <v>17</v>
@@ -7310,7 +7310,7 @@
         <v>33</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G320" t="str">
         <f t="shared" si="5"/>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B321" s="1">
         <v>33</v>
@@ -7328,7 +7328,7 @@
         <v>40</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G321" t="str">
         <f t="shared" si="5"/>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B322" s="1">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>2</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G322" t="str">
         <f t="shared" si="5"/>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B323" s="1">
         <v>2</v>
@@ -7364,7 +7364,7 @@
         <v>6</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G323" t="str">
         <f t="shared" si="5"/>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B324" s="1">
         <v>6</v>
@@ -7382,7 +7382,7 @@
         <v>10</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G324" t="str">
         <f t="shared" si="5"/>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B325" s="1">
         <v>10</v>
@@ -7400,7 +7400,7 @@
         <v>16</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G325" t="str">
         <f t="shared" si="5"/>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B326" s="1">
         <v>16</v>
@@ -7418,7 +7418,7 @@
         <v>18</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G326" t="str">
         <f t="shared" si="5"/>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B327" s="1">
         <v>18</v>
@@ -7436,7 +7436,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G327" t="str">
         <f t="shared" si="5"/>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B328" s="1">
         <v>22</v>
@@ -7454,7 +7454,7 @@
         <v>32</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G328" t="str">
         <f t="shared" si="5"/>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B329" s="1">
         <v>32</v>
@@ -7472,7 +7472,7 @@
         <v>42</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G329" t="str">
         <f t="shared" si="5"/>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B330" s="1">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>5</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G330" t="str">
         <f t="shared" si="5"/>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B331" s="1">
         <v>5</v>
@@ -7508,7 +7508,7 @@
         <v>10</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G331" t="str">
         <f t="shared" si="5"/>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B332" s="1">
         <v>10</v>
@@ -7526,7 +7526,7 @@
         <v>18</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G332" t="str">
         <f t="shared" si="5"/>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B333" s="1">
         <v>18</v>
@@ -7544,7 +7544,7 @@
         <v>29</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G333" t="str">
         <f t="shared" si="5"/>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B334" s="1">
         <v>29</v>
@@ -7562,7 +7562,7 @@
         <v>31</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G334" t="str">
         <f t="shared" si="5"/>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B335" s="1">
         <v>31</v>
@@ -7580,7 +7580,7 @@
         <v>44</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G335" t="str">
         <f t="shared" si="5"/>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B336" s="1">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>14</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G336" t="str">
         <f t="shared" si="5"/>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B337" s="1">
         <v>14</v>
@@ -7616,7 +7616,7 @@
         <v>20</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G337" t="str">
         <f t="shared" si="5"/>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B338" s="1">
         <v>20</v>
@@ -7634,7 +7634,7 @@
         <v>29</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G338" t="str">
         <f t="shared" si="5"/>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B339" s="1">
         <v>29</v>
@@ -7652,7 +7652,7 @@
         <v>32</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G339" t="str">
         <f t="shared" si="5"/>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B340" s="1">
         <v>32</v>
@@ -7670,7 +7670,7 @@
         <v>44</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G340" t="str">
         <f t="shared" si="5"/>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B341" s="1">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G341" t="str">
         <f t="shared" si="5"/>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B342" s="1">
         <v>6</v>
@@ -7706,7 +7706,7 @@
         <v>16</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G342" t="str">
         <f t="shared" si="5"/>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B343" s="1">
         <v>16</v>
@@ -7724,7 +7724,7 @@
         <v>30</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G343" t="str">
         <f t="shared" si="5"/>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B344" s="1">
         <v>30</v>
@@ -7742,7 +7742,7 @@
         <v>34</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G344" t="str">
         <f t="shared" si="5"/>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B345" s="1">
         <v>34</v>
@@ -7760,7 +7760,7 @@
         <v>40</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G345" t="str">
         <f t="shared" si="5"/>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B346" s="1">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>6</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G346" t="str">
         <f t="shared" si="5"/>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B347" s="1">
         <v>6</v>
@@ -7796,7 +7796,7 @@
         <v>16</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G347" t="str">
         <f t="shared" si="5"/>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B348" s="1">
         <v>16</v>
@@ -7814,7 +7814,7 @@
         <v>22</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G348" t="str">
         <f t="shared" si="5"/>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B349" s="1">
         <v>22</v>
@@ -7832,7 +7832,7 @@
         <v>24</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G349" t="str">
         <f t="shared" si="5"/>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B350" s="1">
         <v>24</v>
@@ -7850,7 +7850,7 @@
         <v>30</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G350" t="str">
         <f t="shared" si="5"/>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B351" s="1">
         <v>30</v>
@@ -7868,7 +7868,7 @@
         <v>32</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G351" t="str">
         <f t="shared" si="5"/>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B352" s="1">
         <v>32</v>
@@ -7886,7 +7886,7 @@
         <v>44</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G352" t="str">
         <f t="shared" si="5"/>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B353" s="1">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>5</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G353" t="str">
         <f t="shared" si="5"/>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B354" s="1">
         <v>5</v>
@@ -7922,7 +7922,7 @@
         <v>14</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G354" t="str">
         <f t="shared" si="5"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B355" s="1">
         <v>14</v>
@@ -7940,7 +7940,7 @@
         <v>18</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G355" t="str">
         <f t="shared" si="5"/>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B356" s="1">
         <v>18</v>
@@ -7958,7 +7958,7 @@
         <v>30</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G356" t="str">
         <f t="shared" si="5"/>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B357" s="1">
         <v>30</v>
@@ -7976,7 +7976,7 @@
         <v>44</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G357" t="str">
         <f t="shared" si="5"/>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B358" s="1">
         <v>44</v>
@@ -7994,7 +7994,7 @@
         <v>50</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G358" t="str">
         <f t="shared" si="5"/>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B359" s="1">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G359" t="str">
         <f t="shared" si="5"/>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B360" s="1">
         <v>4</v>
@@ -8030,7 +8030,7 @@
         <v>10</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G360" t="str">
         <f t="shared" si="5"/>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B361" s="1">
         <v>10</v>
@@ -8048,7 +8048,7 @@
         <v>16</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G361" t="str">
         <f t="shared" si="5"/>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B362" s="1">
         <v>16</v>
@@ -8066,7 +8066,7 @@
         <v>18</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G362" t="str">
         <f t="shared" si="5"/>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B363" s="1">
         <v>18</v>
@@ -8084,7 +8084,7 @@
         <v>30</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G363" t="str">
         <f t="shared" si="5"/>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B364" s="1">
         <v>30</v>
@@ -8102,7 +8102,7 @@
         <v>42</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G364" t="str">
         <f t="shared" si="5"/>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B365" s="1">
         <v>42</v>
@@ -8120,7 +8120,7 @@
         <v>46</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G365" t="str">
         <f t="shared" si="5"/>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B366" s="1">
         <v>0</v>
@@ -8138,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G366" t="str">
         <f t="shared" si="5"/>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B367" s="1">
         <v>4</v>
@@ -8156,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G367" t="str">
         <f t="shared" si="5"/>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B368" s="1">
         <v>12</v>
@@ -8174,7 +8174,7 @@
         <v>20</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G368" t="str">
         <f t="shared" si="5"/>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B369" s="1">
         <v>20</v>
@@ -8192,7 +8192,7 @@
         <v>24</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G369" t="str">
         <f t="shared" si="5"/>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B370" s="1">
         <v>24</v>
@@ -8210,7 +8210,7 @@
         <v>32</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G370" t="str">
         <f t="shared" si="5"/>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B371" s="1">
         <v>32</v>
@@ -8228,7 +8228,7 @@
         <v>42</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G371" t="str">
         <f t="shared" si="5"/>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B372" s="1">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G372" t="str">
         <f t="shared" si="5"/>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B373" s="1">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>15</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G373" t="str">
         <f t="shared" si="5"/>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B374" s="1">
         <v>15</v>
@@ -8282,7 +8282,7 @@
         <v>24</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G374" t="str">
         <f t="shared" si="5"/>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B375" s="1">
         <v>24</v>
@@ -8300,7 +8300,7 @@
         <v>28</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G375" t="str">
         <f t="shared" si="5"/>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B376" s="1">
         <v>28</v>
@@ -8318,7 +8318,7 @@
         <v>38</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G376" t="str">
         <f t="shared" si="5"/>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B377" s="1">
         <v>38</v>
@@ -8336,7 +8336,7 @@
         <v>42</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G377" t="str">
         <f t="shared" si="5"/>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B378" s="1">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G378" t="str">
         <f t="shared" si="5"/>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B379" s="1">
         <v>4</v>
@@ -8372,7 +8372,7 @@
         <v>8</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G379" t="str">
         <f t="shared" si="5"/>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B380" s="1">
         <v>8</v>
@@ -8390,7 +8390,7 @@
         <v>21</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G380" t="str">
         <f t="shared" si="5"/>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B381" s="1">
         <v>21</v>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G381" t="str">
         <f t="shared" si="5"/>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B382" s="1">
         <v>26</v>
@@ -8426,7 +8426,7 @@
         <v>36</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G382" t="str">
         <f t="shared" si="5"/>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B383" s="1">
         <v>36</v>
@@ -8444,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G383" t="str">
         <f t="shared" ref="G383:G445" si="6">D383</f>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B384" s="1">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>4</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G384" t="str">
         <f t="shared" si="6"/>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B385" s="1">
         <v>4</v>
@@ -8480,7 +8480,7 @@
         <v>16</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G385" t="str">
         <f t="shared" si="6"/>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B386" s="1">
         <v>16</v>
@@ -8498,7 +8498,7 @@
         <v>26</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G386" t="str">
         <f t="shared" si="6"/>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B387" s="1">
         <v>26</v>
@@ -8516,7 +8516,7 @@
         <v>31</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G387" t="str">
         <f t="shared" si="6"/>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B388" s="1">
         <v>31</v>
@@ -8534,7 +8534,7 @@
         <v>34</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G388" t="str">
         <f t="shared" si="6"/>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B389" s="1">
         <v>34</v>
@@ -8552,7 +8552,7 @@
         <v>40</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G389" t="str">
         <f t="shared" si="6"/>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B390" s="1">
         <v>40</v>
@@ -8570,7 +8570,7 @@
         <v>44</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G390" t="str">
         <f t="shared" si="6"/>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B391" s="1">
         <v>0</v>
@@ -8588,7 +8588,7 @@
         <v>4</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G391" t="str">
         <f t="shared" si="6"/>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B392" s="1">
         <v>4</v>
@@ -8606,7 +8606,7 @@
         <v>16</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G392" t="str">
         <f t="shared" si="6"/>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B393" s="1">
         <v>16</v>
@@ -8624,7 +8624,7 @@
         <v>21</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G393" t="str">
         <f t="shared" si="6"/>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B394" s="1">
         <v>21</v>
@@ -8642,7 +8642,7 @@
         <v>30</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G394" t="str">
         <f t="shared" si="6"/>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B395" s="1">
         <v>30</v>
@@ -8660,7 +8660,7 @@
         <v>34</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G395" t="str">
         <f t="shared" si="6"/>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B396" s="1">
         <v>34</v>
@@ -8678,7 +8678,7 @@
         <v>40</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G396" t="str">
         <f t="shared" si="6"/>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B397" s="1">
         <v>40</v>
@@ -8696,7 +8696,7 @@
         <v>44</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G397" t="str">
         <f t="shared" si="6"/>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B398" s="1">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>2</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G398" t="str">
         <f t="shared" si="6"/>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B399" s="1">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>8</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G399" t="str">
         <f t="shared" si="6"/>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B400" s="1">
         <v>8</v>
@@ -8750,7 +8750,7 @@
         <v>13</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G400" t="str">
         <f t="shared" si="6"/>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B401" s="1">
         <v>13</v>
@@ -8768,7 +8768,7 @@
         <v>20</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G401" t="str">
         <f t="shared" si="6"/>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B402" s="1">
         <v>20</v>
@@ -8786,7 +8786,7 @@
         <v>30</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G402" t="str">
         <f t="shared" si="6"/>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B403" s="1">
         <v>30</v>
@@ -8804,7 +8804,7 @@
         <v>37</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G403" t="str">
         <f t="shared" si="6"/>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B404" s="1">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>6</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G404" t="str">
         <f t="shared" si="6"/>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B405" s="1">
         <v>6</v>
@@ -8840,7 +8840,7 @@
         <v>11</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G405" t="str">
         <f t="shared" si="6"/>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B406" s="1">
         <v>11</v>
@@ -8858,7 +8858,7 @@
         <v>20</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G406" t="str">
         <f t="shared" si="6"/>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B407" s="1">
         <v>20</v>
@@ -8876,7 +8876,7 @@
         <v>33</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G407" t="str">
         <f t="shared" si="6"/>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B408" s="1">
         <v>33</v>
@@ -8894,7 +8894,7 @@
         <v>40</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G408" t="str">
         <f t="shared" si="6"/>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B409" s="1">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>2</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G409" t="str">
         <f t="shared" si="6"/>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B410" s="1">
         <v>2</v>
@@ -8930,7 +8930,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G410" t="str">
         <f t="shared" si="6"/>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B411" s="1">
         <v>9</v>
@@ -8948,7 +8948,7 @@
         <v>12</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G411" t="str">
         <f t="shared" si="6"/>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B412" s="1">
         <v>12</v>
@@ -8966,7 +8966,7 @@
         <v>20</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G412" t="str">
         <f t="shared" si="6"/>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B413" s="1">
         <v>20</v>
@@ -8984,7 +8984,7 @@
         <v>30</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G413" t="str">
         <f t="shared" si="6"/>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B414" s="1">
         <v>30</v>
@@ -9002,7 +9002,7 @@
         <v>44</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G414" t="str">
         <f t="shared" si="6"/>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B415" s="1">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>5</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G415" t="str">
         <f t="shared" si="6"/>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B416" s="1">
         <v>5</v>
@@ -9038,7 +9038,7 @@
         <v>18</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G416" t="str">
         <f t="shared" si="6"/>
@@ -9047,7 +9047,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B417" s="1">
         <v>18</v>
@@ -9056,7 +9056,7 @@
         <v>30</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G417" t="str">
         <f t="shared" si="6"/>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B418" s="1">
         <v>30</v>
@@ -9074,7 +9074,7 @@
         <v>40</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G418" t="str">
         <f t="shared" si="6"/>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B419" s="1">
         <v>40</v>
@@ -9092,7 +9092,7 @@
         <v>44</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G419" t="str">
         <f t="shared" si="6"/>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B420" s="1">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>2</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G420" t="str">
         <f t="shared" si="6"/>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B421" s="1">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>10</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G421" t="str">
         <f t="shared" si="6"/>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B422" s="1">
         <v>10</v>
@@ -9146,7 +9146,7 @@
         <v>20</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G422" t="str">
         <f t="shared" si="6"/>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B423" s="1">
         <v>20</v>
@@ -9164,7 +9164,7 @@
         <v>28</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G423" t="str">
         <f t="shared" si="6"/>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B424" s="1">
         <v>28</v>
@@ -9182,7 +9182,7 @@
         <v>40</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G424" t="str">
         <f t="shared" si="6"/>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B425" s="1">
         <v>40</v>
@@ -9200,7 +9200,7 @@
         <v>44</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G425" t="str">
         <f t="shared" si="6"/>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B426" s="1">
         <v>0</v>
@@ -9218,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G426" t="str">
         <f t="shared" si="6"/>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B427" s="1">
         <v>2</v>
@@ -9236,7 +9236,7 @@
         <v>8</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G427" t="str">
         <f t="shared" si="6"/>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B428" s="1">
         <v>8</v>
@@ -9254,7 +9254,7 @@
         <v>13</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G428" t="str">
         <f t="shared" si="6"/>
@@ -9263,7 +9263,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B429" s="1">
         <v>13</v>
@@ -9272,7 +9272,7 @@
         <v>22</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G429" t="str">
         <f t="shared" si="6"/>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B430" s="1">
         <v>22</v>
@@ -9290,7 +9290,7 @@
         <v>28</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G430" t="str">
         <f t="shared" si="6"/>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B431" s="1">
         <v>28</v>
@@ -9308,7 +9308,7 @@
         <v>40</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G431" t="str">
         <f t="shared" si="6"/>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B432" s="1">
         <v>40</v>
@@ -9326,7 +9326,7 @@
         <v>44</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G432" t="str">
         <f t="shared" si="6"/>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B433" s="1">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G433" t="str">
         <f t="shared" si="6"/>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B434" s="1">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>13</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G434" t="str">
         <f t="shared" si="6"/>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B435" s="1">
         <v>13</v>
@@ -9380,7 +9380,7 @@
         <v>16</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G435" t="str">
         <f t="shared" si="6"/>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B436" s="1">
         <v>16</v>
@@ -9398,7 +9398,7 @@
         <v>22</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G436" t="str">
         <f t="shared" si="6"/>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B437" s="1">
         <v>22</v>
@@ -9416,7 +9416,7 @@
         <v>28</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G437" t="str">
         <f t="shared" si="6"/>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B438" s="1">
         <v>28</v>
@@ -9434,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G438" t="str">
         <f t="shared" si="6"/>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B439" s="1">
         <v>30</v>
@@ -9452,7 +9452,7 @@
         <v>42</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G439" t="str">
         <f t="shared" si="6"/>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B440" s="1">
         <v>0</v>
@@ -9470,7 +9470,7 @@
         <v>6</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G440" t="str">
         <f t="shared" si="6"/>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B441" s="1">
         <v>6</v>
@@ -9488,7 +9488,7 @@
         <v>12</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G441" t="str">
         <f t="shared" si="6"/>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B442" s="1">
         <v>12</v>
@@ -9506,7 +9506,7 @@
         <v>20</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G442" t="str">
         <f t="shared" si="6"/>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B443" s="1">
         <v>20</v>
@@ -9524,7 +9524,7 @@
         <v>24</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G443" t="str">
         <f t="shared" si="6"/>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B444" s="1">
         <v>24</v>
@@ -9542,7 +9542,7 @@
         <v>31</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G444" t="str">
         <f t="shared" si="6"/>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B445" s="1">
         <v>31</v>
@@ -9560,7 +9560,7 @@
         <v>48</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G445" t="str">
         <f t="shared" si="6"/>
@@ -9576,6 +9576,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9584,7 +9590,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D4CA3FA0837E54794E287B0569A4ABE" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8ae72eebf71b9b9eb0240042baa9bfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d366f2d-1253-4ea3-afb6-d58d29b01631" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b693e8805cd70a38a961c21e5c79a22" ns2:_="">
     <xsd:import namespace="0d366f2d-1253-4ea3-afb6-d58d29b01631"/>
@@ -9716,13 +9722,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FED5F7FA-20BA-4322-9A1D-50EBFA131A2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0d366f2d-1253-4ea3-afb6-d58d29b01631"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ABF6711-F6C7-4D1F-BF46-D920BFC8083F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9730,7 +9746,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BC504DE-A268-496F-83F5-60A00179F183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9746,20 +9762,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FED5F7FA-20BA-4322-9A1D-50EBFA131A2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0d366f2d-1253-4ea3-afb6-d58d29b01631"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>